--- a/TestData/StagTestDataBack.xlsx
+++ b/TestData/StagTestDataBack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -1970,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3733,7 +3733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
